--- a/Marketing/wm.roomme.xlsx
+++ b/Marketing/wm.roomme.xlsx
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">

--- a/Marketing/wm.roomme.xlsx
+++ b/Marketing/wm.roomme.xlsx
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="B338" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="B339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="B340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="B341" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">

--- a/Marketing/wm.roomme.xlsx
+++ b/Marketing/wm.roomme.xlsx
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="B342" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="B343" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="B344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="B345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="B346" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="B347" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="B348" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="B349" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="B350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="B351" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B352" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="B353" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="B354" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="B355" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="B356" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="B357" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="B358" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="B359" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="B360" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B361" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="B362" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="B363" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="B364" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="B365" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="B366" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
@@ -4102,7 +4102,7 @@
         </is>
       </c>
       <c r="B367" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="B368" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="B369" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B370" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -4142,7 +4142,7 @@
         </is>
       </c>
       <c r="B371" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="B372" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="B373" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="B374" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="B375" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="B376" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="B377" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="B378" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="B379" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="B380" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="B381" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="B382" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
@@ -4262,7 +4262,7 @@
         </is>
       </c>
       <c r="B383" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="B384" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="B385" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="B386" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="B387" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="B388" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="B389" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="B390" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="B391" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="B392" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="B393" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="B394" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="B395" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="B396" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -4402,7 +4402,7 @@
         </is>
       </c>
       <c r="B397" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="B398" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="B399" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="B400" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="B401" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="B402" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B403" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="B404" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="B405" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="B406" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
@@ -4502,7 +4502,7 @@
         </is>
       </c>
       <c r="B407" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="B408" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="B409" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="B410" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="B411" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="B412" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="B413" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="B414" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="B415" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="B416" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="B417" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="B418" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B419" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="B420" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="B421" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="B422" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="B423" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="B424" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="B425" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="B426" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="B427" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="B428" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
@@ -4722,7 +4722,7 @@
         </is>
       </c>
       <c r="B429" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="B430" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
@@ -4742,7 +4742,7 @@
         </is>
       </c>
       <c r="B431" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="B432" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="B433" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="B434" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="B435" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="B436" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
@@ -4802,7 +4802,7 @@
         </is>
       </c>
       <c r="B437" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="B438" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="B439" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="B440" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
@@ -4842,7 +4842,7 @@
         </is>
       </c>
       <c r="B441" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="B442" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
@@ -4862,7 +4862,7 @@
         </is>
       </c>
       <c r="B443" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="B444" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="B445" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="B446" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="B447" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="B448" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
@@ -4922,7 +4922,7 @@
         </is>
       </c>
       <c r="B449" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="B450" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="B451" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="B452" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="B453" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="B454" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
@@ -4982,7 +4982,7 @@
         </is>
       </c>
       <c r="B455" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="B456" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
@@ -5002,7 +5002,7 @@
         </is>
       </c>
       <c r="B457" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="B458" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
@@ -5022,7 +5022,7 @@
         </is>
       </c>
       <c r="B459" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="B460" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="B461" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="B462" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
@@ -5062,7 +5062,7 @@
         </is>
       </c>
       <c r="B463" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="B464" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="B465" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="B466" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
@@ -5102,7 +5102,7 @@
         </is>
       </c>
       <c r="B467" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="B468" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="B469" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="B470" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
@@ -5142,7 +5142,7 @@
         </is>
       </c>
       <c r="B471" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="B472" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
@@ -5162,7 +5162,7 @@
         </is>
       </c>
       <c r="B473" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="B474" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
@@ -5182,7 +5182,7 @@
         </is>
       </c>
       <c r="B475" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="B476" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="B477" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478">
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="B478" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
@@ -5222,7 +5222,7 @@
         </is>
       </c>
       <c r="B479" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="B480" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
@@ -5242,7 +5242,7 @@
         </is>
       </c>
       <c r="B481" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B482" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
@@ -5262,7 +5262,7 @@
         </is>
       </c>
       <c r="B483" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="B484" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
@@ -5282,7 +5282,7 @@
         </is>
       </c>
       <c r="B485" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="B486" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="B487" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="B488" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489">
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="B489" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="B490" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="B491" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="B492" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="B493" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
@@ -5372,7 +5372,7 @@
         </is>
       </c>
       <c r="B494" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="B495" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="B496" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
@@ -5402,7 +5402,7 @@
         </is>
       </c>
       <c r="B497" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B498" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
@@ -5422,7 +5422,7 @@
         </is>
       </c>
       <c r="B499" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500">
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="B500" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501">
@@ -5442,7 +5442,7 @@
         </is>
       </c>
       <c r="B501" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">

--- a/Marketing/wm.roomme.xlsx
+++ b/Marketing/wm.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B341"/>
+  <dimension ref="A1:B351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>malloryy_mc</t>
+          <t>linneabcde</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>weon_tomsoup</t>
+          <t>clarabodnarr</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isaboilla</t>
+          <t>sia_betadelta</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>gcc167</t>
+          <t>landenbroocke</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>gigiadenton</t>
+          <t>jaenyaaa._</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bridgetgio5</t>
+          <t>wmadmission</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>lily_englert</t>
+          <t>ajxbucy</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dannyni0617</t>
+          <t>ericfagan0</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>wmpeterli</t>
+          <t>priyalguptaa</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>agrabulosar</t>
+          <t>brett.talman</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>m.asonmorris</t>
+          <t>jjhustis</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>sadiemcmahon05</t>
+          <t>gcc167</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>katecboswell</t>
+          <t>c_lowe1426</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>auroraschwaner</t>
+          <t>logie_tb</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>riley.rodriguez0</t>
+          <t>bridget.fulton</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>sherieeeey</t>
+          <t>andersjohncarlson</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>crow_not__raven</t>
+          <t>carolhawleyy</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>josephine.wellons</t>
+          <t>ben.xzn</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>elizabethvcasto</t>
+          <t>anupriyaroy_</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>annagmurray</t>
+          <t>matt.hoekenga</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,301 +648,301 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>sydneyysheldon</t>
+          <t>elle.mountford</t>
         </is>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>sheppy_oman</t>
+          <t>s_sternot</t>
         </is>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>jenna.l.weinberg</t>
+          <t>taylorcoker4pres</t>
         </is>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>howtohyung93</t>
+          <t>jasonb034</t>
         </is>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>btw.isaac</t>
+          <t>emilychae_</t>
         </is>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>caleb.mccormick.587</t>
+          <t>ethan_spector</t>
         </is>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>seabunny6400</t>
+          <t>josiemgruendel</t>
         </is>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>brianna_ferg_</t>
+          <t>nolan.jansorn</t>
         </is>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>briiannaedwards</t>
+          <t>jack.longvcp</t>
         </is>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>nora_birchett</t>
+          <t>yyyice77777</t>
         </is>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>jillkeehan_</t>
+          <t>tylergolod</t>
         </is>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>dill_i_on</t>
+          <t>abbyfurcy</t>
         </is>
       </c>
       <c r="B33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>frankie_glvn</t>
+          <t>ryansublett</t>
         </is>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>vivianvesuna</t>
+          <t>anna.locklin</t>
         </is>
       </c>
       <c r="B35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>jasmin.hernandez.28</t>
+          <t>btw.isaac</t>
         </is>
       </c>
       <c r="B36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>mryodamanl</t>
+          <t>ethanthewalrath</t>
         </is>
       </c>
       <c r="B37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>tiara.c0c0</t>
+          <t>matthe.meyer</t>
         </is>
       </c>
       <c r="B38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>beenish_malik80</t>
+          <t>wendyward885</t>
         </is>
       </c>
       <c r="B39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>matthiasiy</t>
+          <t>zach_pasternak</t>
         </is>
       </c>
       <c r="B40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>bobbie_doherty</t>
+          <t>degnan_erin</t>
         </is>
       </c>
       <c r="B41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>molkowski27</t>
+          <t>just_nihao</t>
         </is>
       </c>
       <c r="B42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>jarednoyman</t>
+          <t>_ellaawhitee_</t>
         </is>
       </c>
       <c r="B43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>colinjwalls</t>
+          <t>ssaraheid</t>
         </is>
       </c>
       <c r="B44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>bianca__r4</t>
+          <t>ben.landry7</t>
         </is>
       </c>
       <c r="B45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>audreysims3</t>
+          <t>xxcammillaxx</t>
         </is>
       </c>
       <c r="B46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ben.xzn</t>
+          <t>tbegasse_</t>
         </is>
       </c>
       <c r="B47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>liamandros</t>
+          <t>giannaklopping</t>
         </is>
       </c>
       <c r="B48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>sophializz_</t>
+          <t>justin.feira</t>
         </is>
       </c>
       <c r="B49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>matthetart</t>
+          <t>arjunkaneriya_</t>
         </is>
       </c>
       <c r="B50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>lauriepperry</t>
+          <t>adaawoo</t>
         </is>
       </c>
       <c r="B51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -952,703 +952,703 @@
         </is>
       </c>
       <c r="B52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>shreshthapeter</t>
+          <t>allisonburgess__</t>
         </is>
       </c>
       <c r="B53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>bob.llewellyn1</t>
+          <t>paulcesario_</t>
         </is>
       </c>
       <c r="B54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>justinkim3901</t>
+          <t>trish_weems05</t>
         </is>
       </c>
       <c r="B55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>sarahchouinard2023</t>
+          <t>harishdaboss</t>
         </is>
       </c>
       <c r="B56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>kirsten.buggel</t>
+          <t>sryanrpi</t>
         </is>
       </c>
       <c r="B57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>jlbt3903</t>
+          <t>eggomywego</t>
         </is>
       </c>
       <c r="B58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>kelson_lowrie</t>
+          <t>anjali__manohar</t>
         </is>
       </c>
       <c r="B59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>zacmreno_</t>
+          <t>laura.s217</t>
         </is>
       </c>
       <c r="B60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ryannie777</t>
+          <t>dale.devinney</t>
         </is>
       </c>
       <c r="B61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>shawty.syndrome</t>
+          <t>abby.popeee</t>
         </is>
       </c>
       <c r="B62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ellsmoser</t>
+          <t>wilkins_evan</t>
         </is>
       </c>
       <c r="B63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>katie.s.310</t>
+          <t>fcrbsies</t>
         </is>
       </c>
       <c r="B64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>annasprnkel</t>
+          <t>jennygreek4</t>
         </is>
       </c>
       <c r="B65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>zach_pasternak</t>
+          <t>ssarahmariee</t>
         </is>
       </c>
       <c r="B66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>michael_wang21</t>
+          <t>dill_i_on</t>
         </is>
       </c>
       <c r="B67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>joshua19chin</t>
+          <t>_edwards.carolyn_</t>
         </is>
       </c>
       <c r="B68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>alexademic_weapon</t>
+          <t>emen0rd</t>
         </is>
       </c>
       <c r="B69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>john.glasow</t>
+          <t>reese_bry</t>
         </is>
       </c>
       <c r="B70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>kaylajuelfs</t>
+          <t>maybe_im_mark</t>
         </is>
       </c>
       <c r="B71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>gavin_sandall</t>
+          <t>alexademic_weapon</t>
         </is>
       </c>
       <c r="B72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>abrycep</t>
+          <t>kiran_evensky</t>
         </is>
       </c>
       <c r="B73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>riley.kz</t>
+          <t>nazdaq.hab</t>
         </is>
       </c>
       <c r="B74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>cl.emma.ntine</t>
+          <t>koko_florenza</t>
         </is>
       </c>
       <c r="B75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>jm.jennings</t>
+          <t>nathanhutch13</t>
         </is>
       </c>
       <c r="B76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>summerpenzi</t>
+          <t>fujiokakota</t>
         </is>
       </c>
       <c r="B77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>j_wise42</t>
+          <t>tarakat96</t>
         </is>
       </c>
       <c r="B78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>allisonburgess__</t>
+          <t>zoeogalvin</t>
         </is>
       </c>
       <c r="B79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ruth.hof</t>
+          <t>danielhshi</t>
         </is>
       </c>
       <c r="B80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>grace.exall</t>
+          <t>avaalewis_</t>
         </is>
       </c>
       <c r="B81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>sellzun</t>
+          <t>sharonwyckoff</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>nazdaq.hab</t>
+          <t>sabina1545</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>hannahleesux</t>
+          <t>samantha_wargo</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>tarakat96</t>
+          <t>jillybean21_</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>shane_lawson99</t>
+          <t>connorlee154</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>calderburkhart</t>
+          <t>karafurman</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>sophie_mango5</t>
+          <t>aprilameerah</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>abasloe</t>
+          <t>taylor.gibby</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>it.sjulianna</t>
+          <t>dannyni0617</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>clem.fuller</t>
+          <t>lily.ellis03</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>tammyinnyc</t>
+          <t>mdnguyen02</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>lucag_in_dc</t>
+          <t>mirth_no_matter</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>lukeiac</t>
+          <t>colinjwalls</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>dunninggould864</t>
+          <t>s.a.levy</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>clarabodnarr</t>
+          <t>benettawangg</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>agrsmg</t>
+          <t>sean.younggg</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>elliottledare</t>
+          <t>lemfisher</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>cawrightt</t>
+          <t>gilliandewsbury</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>allexisle</t>
+          <t>bob.llewellyn1</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>zoe.zollinger</t>
+          <t>david_kordziel</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>karafurman</t>
+          <t>mick.kamp</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>marybethreuter</t>
+          <t>d3n1se.mckeown</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>mlourdesgg2022</t>
+          <t>meg.rourke</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>piggemom</t>
+          <t>meghandreid</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>marli.hynes</t>
+          <t>karen_mensah_sarbah</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>catherine.zic</t>
+          <t>danniel_cao</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>degnan_erin</t>
+          <t>mayaroypdf73</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>josiah1661</t>
+          <t>iliaspapage</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>isabella_mcnutt</t>
+          <t>lauriepperry</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>hope_luli</t>
+          <t>emily_13_elliott</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>jack.longvcp</t>
+          <t>maggie_henneman</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>tristan_jander</t>
+          <t>__nicole__perez</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>richiedeluna5</t>
+          <t>charlotte_b46</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>maryelaun</t>
+          <t>lil_phyzz</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>jjhustis</t>
+          <t>seanemmett.11</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>nbirdwell07</t>
+          <t>dhanbee.suh</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>emmanewill</t>
+          <t>lucag_in_dc</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>em.lawless</t>
+          <t>sarahchouinard2023</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>meghandreid</t>
+          <t>ding_hsin_2005</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>becca.h23</t>
+          <t>brycecloonan</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>miryo.ng</t>
+          <t>nbirdwell07</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>davidsog15</t>
+          <t>_carolynbohnert</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>priyalexa</t>
+          <t>christophermccarrick</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>_carolineeclarke</t>
+          <t>meganday05</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>rubeojonathan</t>
+          <t>lukeiac</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>matt.jaekel</t>
+          <t>cawrightt</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>meghan_shelley</t>
+          <t>joe.terpenning</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>irene.stubert</t>
+          <t>richiedeluna5</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>brian.r.cunningham.5</t>
+          <t>kier_._sten</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>kloie.renay</t>
+          <t>jlbt3903</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -1748,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>naomiheilen</t>
+          <t>thomas.mcmurtrie</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>s.a.levy</t>
+          <t>kimmarinogalvan</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>nicb1.23</t>
+          <t>emilyy.willard</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ella.keenann</t>
+          <t>sampfriedman</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>chris.cole23</t>
+          <t>abelyared</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>logie_tb</t>
+          <t>natalie_.najera</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>kc_francella</t>
+          <t>michael_wang21</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>maggie_henneman</t>
+          <t>0ericjohnson0</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ding_hsin_2005</t>
+          <t>piper.buswell</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>san.kim219</t>
+          <t>owenhagen9</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>xuzhongwang4</t>
+          <t>alexander_hatfield</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>wm_wizmug</t>
+          <t>ty_cooley423</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>emma.staeger13</t>
+          <t>giordano3274</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>mick.kamp</t>
+          <t>twcovington</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>christophermccarrick</t>
+          <t>ruth.hof</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>_edwards.carolyn_</t>
+          <t>summerpenzi</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>werjoyv</t>
+          <t>jasmin.hernandez.28</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>sophie.a.king</t>
+          <t>fkelly23</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>annabeleverett_</t>
+          <t>tedx_wm_spring_2024</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>danielhshi</t>
+          <t>joshuaryan366</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>helen.buzzoni</t>
+          <t>katie_martz</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>oliviamagalio</t>
+          <t>_charlotte.smith_</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>wmdejavu</t>
+          <t>brian.r.cunningham.5</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>lil_phyzz</t>
+          <t>anjalikris17</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>anne.licato</t>
+          <t>matthetart</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>amberjmeyers</t>
+          <t>noah_krieg_</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>hannahesawyer</t>
+          <t>davidthefifth</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>annmie7</t>
+          <t>andrew_henrickson</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>lizz_burm</t>
+          <t>kc_francella</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>alexander_hatfield</t>
+          <t>17rrauscher</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ericaviles05</t>
+          <t>raley.h66</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>victoria_wh1tt</t>
+          <t>landenw.24</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>grace3vans</t>
+          <t>zaranaka_welch</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>sampfriedman</t>
+          <t>ssonssonee</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>katie_martz</t>
+          <t>willjuricak</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>carasoscie</t>
+          <t>ramachak23</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>jack_covin</t>
+          <t>helen.buzzoni</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>acscheck15</t>
+          <t>caroline.berman</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>jane.valadakis</t>
+          <t>sadiemcmahon05</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>emily_13_elliott</t>
+          <t>m.asonmorris</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>seth_hannon_</t>
+          <t>mayer.tawfik</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>danniel_cao</t>
+          <t>audreysims3</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>erinuniacke</t>
+          <t>noraaaa_hf</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>astral_eaglez</t>
+          <t>tfdalyv</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>_juliev13_</t>
+          <t>mia.hunt_</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ritch_history</t>
+          <t>lulu_bertioli</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>androo622</t>
+          <t>ava.schultz12</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>tdxwm</t>
+          <t>marie.pearl04</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>rileyystuartt</t>
+          <t>eshalaamer</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ashleigh.yalowitz</t>
+          <t>catiesheehy</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>rauscherscott</t>
+          <t>tpvdv4408</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>dayvid_tollsin</t>
+          <t>wm_kasa</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>grace_carryer</t>
+          <t>hannahesawyer</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ty_cooley423</t>
+          <t>sellzun</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t.ysonnn</t>
+          <t>vanessawalrath</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ern.googly</t>
+          <t>__emmawatts</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ian.mccannn</t>
+          <t>colleen.p.nielsen</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>terrencemcdu</t>
+          <t>jessiehortonnn</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>emilyy.willard</t>
+          <t>gavin_sandall</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>michaelkenny_</t>
+          <t>dj.cebula</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>charlottedcastle</t>
+          <t>brookesmythers</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>mdnguyen02</t>
+          <t>thatskarislee</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>yell0there</t>
+          <t>wesclevengerr</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>will_rambo75</t>
+          <t>elizabethaversa18</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ssarahmariee</t>
+          <t>tiara.c0c0</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ellaxjarrett</t>
+          <t>catmvalenti</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>katz.zev</t>
+          <t>alexdeje12</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>anna.hystad</t>
+          <t>olivia.stegner</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>_nsansone</t>
+          <t>annabeleverett_</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>_wahab_a</t>
+          <t>san.kim219</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>die.hmm</t>
+          <t>crow_not__raven</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>hannahjzog</t>
+          <t>kayla_brightman</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>landenw.24</t>
+          <t>tammyinnyc</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>olivia.mparker</t>
+          <t>jenryan2052</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>eva_t33</t>
+          <t>leahnanf</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>x_.ramiyah_.x</t>
+          <t>lucyflannerygoodman_</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>11arriet</t>
+          <t>shk.jake</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>caleylevine</t>
+          <t>emily.garlic</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>leahsconnell</t>
+          <t>tristan_jander</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>greenberg_ava</t>
+          <t>misirui_furniture</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>patty_mriley</t>
+          <t>ambermarietompkins</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>caroline.berman</t>
+          <t>abby.freund</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>aureliejustinee</t>
+          <t>sam.koranteng</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>averyk1ng</t>
+          <t>brow.n6401</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>katherine.tharr</t>
+          <t>_maria_haddad</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>noahmauriello</t>
+          <t>noah_mojda</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ot4lyf</t>
+          <t>elizabethfrenchhorn</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>oshiete_oshiete_yo_</t>
+          <t>lg_goldman</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>skylarmayconn</t>
+          <t>igreenivyi</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>brumbaughjack</t>
+          <t>kelson_lowrie</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>anangonz</t>
+          <t>aniyaht.12</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>sarahvburns05</t>
+          <t>elenabensonn</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>li_zihan0916</t>
+          <t>chadyates27</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>noah_krieg_</t>
+          <t>tommy.soffronoff</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>emitroko</t>
+          <t>wmpsychology</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>calhoun_beaufort</t>
+          <t>_wahab_a</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ethan.wildgen</t>
+          <t>sarahvburns05</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>iris.zola23</t>
+          <t>geethanrameshh</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>kimmarinogalvan</t>
+          <t>irene.stubert</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>abbyfurcy</t>
+          <t>kennedyl.8234</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>s_sternot</t>
+          <t>moulton411</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>anna.locklin</t>
+          <t>becca_ries</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>sarah.a.n._</t>
+          <t>lcutts1</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>b_rob_iii</t>
+          <t>kyle_johnson_05</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>savara_s_13</t>
+          <t>taylor.afc</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>mollyfield_8</t>
+          <t>_cbjohnson_</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>jbwarrillow88</t>
+          <t>victoria_wh1tt</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>manju.mure</t>
+          <t>jordyns789</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>kayla_brightman</t>
+          <t>amandaxgabriela</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>apchouinard</t>
+          <t>rebecca___c</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>mandyhoy_</t>
+          <t>knox_dendy</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>annaa.clee</t>
+          <t>mmicahnoelle</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>tfdalyv</t>
+          <t>claracavazos</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>amberson_bauer</t>
+          <t>beatrice.gouverneur</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>av_shepard</t>
+          <t>jamison_gilmore</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>iliyaanpasha</t>
+          <t>bobbie_doherty</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>max.dbutler</t>
+          <t>gabb.see</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>noah_mojda</t>
+          <t>will_rambo75</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>feliks_chen1</t>
+          <t>david.mckeown.jr</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>yancyyyyyy1127_w</t>
+          <t>parkerdebnam</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ajxbucy</t>
+          <t>curioused10</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>norahharrison_</t>
+          <t>gracedreis</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>meredie08</t>
+          <t>briiannaedwards</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>trish_weems05</t>
+          <t>nataliekayburg</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>meagankenney</t>
+          <t>ameliak_05</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>lg_goldman</t>
+          <t>jeografi_</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>alexisrreese</t>
+          <t>_sashakovtun_</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>aelederman1</t>
+          <t>isabella_mcnutt</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>carolineemcglynn</t>
+          <t>allen_baxter19</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ariha.d</t>
+          <t>annasprnkel</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>david_jchoi</t>
+          <t>yell0there</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>mollly.nelson</t>
+          <t>ot4lyf</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>cora.suzanne_</t>
+          <t>mgnpruitt</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>wilkins_evan</t>
+          <t>lalisamanobal_nyein2022118</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>zoeogalvin</t>
+          <t>grace_carryer</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>shama._.hasan</t>
+          <t>john.glasow</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>varunthepizzaman</t>
+          <t>bianca__r4</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>jamison_gilmore</t>
+          <t>meredie08</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>joey_calisti</t>
+          <t>maggiewalters8</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>maggiewalters8</t>
+          <t>j_wise42</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>sammy_hicks</t>
+          <t>hannahleesux</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>twcovington</t>
+          <t>a11ysonmorris</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>autumn.roverse</t>
+          <t>bellasambaloca</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>_luciahughes</t>
+          <t>bayne_n14</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ermkicks</t>
+          <t>_sean.kersey_</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>giordano3274</t>
+          <t>timmy.tasler</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>elisemontes.23</t>
+          <t>ryan.hendersonn</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>lemfisher</t>
+          <t>skylarmayconn</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>kkmessmore</t>
+          <t>cecelia.lauren_</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>bridgetasavage</t>
+          <t>n.valyayev</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>nathanklintworth</t>
+          <t>sarah_schulte_11</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>_priya_shan_</t>
+          <t>johnnpotash</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ssaraheid</t>
+          <t>acscheck15</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>paulcesario_</t>
+          <t>sheppy_oman</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>melissa.bantz</t>
+          <t>auroraschwaner</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>misirui_furniture</t>
+          <t>kadence.r.dickey</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>andersjohncarlson</t>
+          <t>melissa.bantz</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>owenhagen9</t>
+          <t>riley.kz</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>gsolari13</t>
+          <t>vcl_xi</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>davidthefifth</t>
+          <t>_declanwalsh_</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>marycat.slagle</t>
+          <t>abrown2118</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>sam.koranteng</t>
+          <t>alex__grapsas</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>pranjaligupta</t>
+          <t>pablo_tartiere</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>frankyttwombly</t>
+          <t>catherine.zic</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>allen_baxter19</t>
+          <t>aya_ezzahii_</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>mackenziewebber18</t>
+          <t>nathan.f.ward</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>nolan.jansorn</t>
+          <t>molly_edmonds13</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>jack.delnegro</t>
+          <t>it.sjulianna</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>danny.welch7</t>
+          <t>josshempel</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>meredith_mccrazy</t>
+          <t>halle_thompson27</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ericfagan0</t>
+          <t>terrencemcdu</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>mayer.tawfik</t>
+          <t>vivianvesuna</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>sophie_kenn</t>
+          <t>anangonz</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>wm_kasa</t>
+          <t>lizz_burm</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>monsieurjay7</t>
+          <t>joshk10</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>moulton411</t>
+          <t>ronzonilee</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>benisjammin2</t>
+          <t>samrosuck</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>corban_bewley</t>
+          <t>carolineemullen</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>anjali__manohar</t>
+          <t>stebner.amanda</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>lorelei_h_c</t>
+          <t>ryannie777</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>bruna.rrochaa</t>
+          <t>iriswhit30</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>meg_mc26</t>
+          <t>liannajarecki</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>_quilla_c</t>
+          <t>samantha_gaylor</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>carolinemweigel</t>
+          <t>james.leonarddd</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>david_kordziel</t>
+          <t>kami_0920</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>lilypuff88</t>
+          <t>hadillmarah</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>shakirashinaba</t>
+          <t>ananya.gomatam</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>xuchenyu10</t>
+          <t>_jackhales</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>joshuaryan366</t>
+          <t>carolineemcglynn</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>jillybean21_</t>
+          <t>megantimmes</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>gracie_rosenberg</t>
+          <t>alexandra.lauderbaugh</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>zachlemay90</t>
+          <t>kirsten.buggel</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>kj.ellies</t>
+          <t>c_truesdale3</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ramachak23</t>
+          <t>meg_mc26</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>halle_thompson27</t>
+          <t>hsakurab</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>melm582</t>
+          <t>izzy.rietze</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>natalie_.najera</t>
+          <t>zoe.arakelian</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>gr8artist</t>
+          <t>ameliavjohnson</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>ariellepix</t>
+          <t>joshua19chin</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>joshk10</t>
+          <t>sarah.a.n._</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>iliaspapage</t>
+          <t>grace.huffman28</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ggbellamy</t>
+          <t>nataliechenard</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>elle.mountford</t>
+          <t>kaylaschifferle</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>averyyjohnstonn</t>
+          <t>erinuniacke</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>mayab0906</t>
+          <t>clem.fuller</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>mgnpruitt</t>
+          <t>_tdf5</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>giannaklopping</t>
+          <t>_katlove</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>cheryl.d.a.o</t>
+          <t>ggbellamy</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>catmvalenti</t>
+          <t>kaylaathorpe</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,10 +3838,110 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>abby.popeee</t>
+          <t>tdxwm</t>
         </is>
       </c>
       <c r="B341" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>matttyp01</t>
+        </is>
+      </c>
+      <c r="B342" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>sophializz_</t>
+        </is>
+      </c>
+      <c r="B343" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>stephendalil</t>
+        </is>
+      </c>
+      <c r="B344" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>philip_vayntrub</t>
+        </is>
+      </c>
+      <c r="B345" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>alexalewandowski</t>
+        </is>
+      </c>
+      <c r="B346" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>krishna1sw</t>
+        </is>
+      </c>
+      <c r="B347" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>brumbaughjack</t>
+        </is>
+      </c>
+      <c r="B348" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>wmmath</t>
+        </is>
+      </c>
+      <c r="B349" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>sophie.ermellini</t>
+        </is>
+      </c>
+      <c r="B350" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>jess__richmond</t>
+        </is>
+      </c>
+      <c r="B351" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/wm.roomme.xlsx
+++ b/Marketing/wm.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B351"/>
+  <dimension ref="A1:B378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>linneabcde</t>
+          <t>adaawoo</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>clarabodnarr</t>
+          <t>allihunnicutt_</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sia_betadelta</t>
+          <t>finny__54</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>landenbroocke</t>
+          <t>ahsatwm</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaenyaaa._</t>
+          <t>elizabethvcasto</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>wmadmission</t>
+          <t>andersjohncarlson</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ajxbucy</t>
+          <t>ava_svindland</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ericfagan0</t>
+          <t>izzy.rietze</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>priyalguptaa</t>
+          <t>mayah_kdt</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>brett.talman</t>
+          <t>cawrightt</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jjhustis</t>
+          <t>cece_hargrove</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>gcc167</t>
+          <t>varunthepizzaman</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>c_lowe1426</t>
+          <t>g_dunn24</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>logie_tb</t>
+          <t>_sashakovtun_</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>bridget.fulton</t>
+          <t>norahgodshall</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>andersjohncarlson</t>
+          <t>kaylee.dohertyyy</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>carolhawleyy</t>
+          <t>james.leonarddd</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ben.xzn</t>
+          <t>bahamabear123</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>anupriyaroy_</t>
+          <t>beckrydz</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>matt.hoekenga</t>
+          <t>travis.billings1ey</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,1107 +648,1107 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>elle.mountford</t>
+          <t>kaylaathorpe</t>
         </is>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>s_sternot</t>
+          <t>prestonhuyard</t>
         </is>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>taylorcoker4pres</t>
+          <t>madeline.frazierr</t>
         </is>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>jasonb034</t>
+          <t>chloe.e.sarvis</t>
         </is>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>emilychae_</t>
+          <t>m.i.k.d.e.e.n</t>
         </is>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ethan_spector</t>
+          <t>kayla_brightman</t>
         </is>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>josiemgruendel</t>
+          <t>clem.fuller</t>
         </is>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>nolan.jansorn</t>
+          <t>katie._.bryan</t>
         </is>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>jack.longvcp</t>
+          <t>emma.cari</t>
         </is>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>yyyice77777</t>
+          <t>patrickjllewellyn</t>
         </is>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>tylergolod</t>
+          <t>juliazc450</t>
         </is>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>abbyfurcy</t>
+          <t>em.lawless</t>
         </is>
       </c>
       <c r="B33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ryansublett</t>
+          <t>kali.r.c</t>
         </is>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>anna.locklin</t>
+          <t>nboyle_04</t>
         </is>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>btw.isaac</t>
+          <t>sydney.hawks</t>
         </is>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ethanthewalrath</t>
+          <t>ruth.hof</t>
         </is>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>matthe.meyer</t>
+          <t>noah_mojda</t>
         </is>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>wendyward885</t>
+          <t>_jovjin_</t>
         </is>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>zach_pasternak</t>
+          <t>_jadaaa.h804</t>
         </is>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>degnan_erin</t>
+          <t>chloe_c41</t>
         </is>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>just_nihao</t>
+          <t>spencer_.blackwell</t>
         </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>_ellaawhitee_</t>
+          <t>connor.murray42</t>
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ssaraheid</t>
+          <t>annemcsweeney_</t>
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ben.landry7</t>
+          <t>jackgallardo04</t>
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>xxcammillaxx</t>
+          <t>ianorensky</t>
         </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>tbegasse_</t>
+          <t>msternot</t>
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>giannaklopping</t>
+          <t>its_me_mrg_</t>
         </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>justin.feira</t>
+          <t>nicoleazajac_</t>
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>arjunkaneriya_</t>
+          <t>lydi.yuhh</t>
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>adaawoo</t>
+          <t>landenbroocke</t>
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>abbythegrammer</t>
+          <t>kata.blackwood</t>
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>allisonburgess__</t>
+          <t>gabby_gaston</t>
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>paulcesario_</t>
+          <t>molly_edmonds13</t>
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>trish_weems05</t>
+          <t>rowanthewarriorcat</t>
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>harishdaboss</t>
+          <t>mace_theman</t>
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>sryanrpi</t>
+          <t>mayaroypdf73</t>
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>eggomywego</t>
+          <t>tbhnatislame</t>
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>anjali__manohar</t>
+          <t>selwynr19</t>
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>laura.s217</t>
+          <t>joshuaryan366</t>
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>dale.devinney</t>
+          <t>darieldodds</t>
         </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>abby.popeee</t>
+          <t>bridgetgio5</t>
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>wilkins_evan</t>
+          <t>juliazhaang</t>
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>fcrbsies</t>
+          <t>beknight07_</t>
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>jennygreek4</t>
+          <t>trinhmay80</t>
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ssarahmariee</t>
+          <t>momil_22</t>
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>dill_i_on</t>
+          <t>leya_baalb</t>
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>_edwards.carolyn_</t>
+          <t>kate__mccann</t>
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>emen0rd</t>
+          <t>bella.bivens</t>
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>reese_bry</t>
+          <t>michaelweiner_2024</t>
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>maybe_im_mark</t>
+          <t>evan.k.mcmahon</t>
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>alexademic_weapon</t>
+          <t>ssonssonee</t>
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>kiran_evensky</t>
+          <t>camdens.thetallest</t>
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>nazdaq.hab</t>
+          <t>stephendalil</t>
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>koko_florenza</t>
+          <t>lukas.rich747</t>
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>nathanhutch13</t>
+          <t>annika_c_m</t>
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>fujiokakota</t>
+          <t>hay.leeluv31</t>
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>tarakat96</t>
+          <t>connorlee154</t>
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>zoeogalvin</t>
+          <t>beech.tree.37</t>
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>danielhshi</t>
+          <t>sami_fuleihan</t>
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>avaalewis_</t>
+          <t>five_fraziers</t>
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>sharonwyckoff</t>
+          <t>gentiwenti</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>sabina1545</t>
+          <t>rafitaherrerab</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>samantha_wargo</t>
+          <t>kerrigankimener</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>jillybean21_</t>
+          <t>tyler.k.57</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>connorlee154</t>
+          <t>gavinzborowski5280</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>karafurman</t>
+          <t>jenniechun_</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>aprilameerah</t>
+          <t>thanna.1</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>taylor.gibby</t>
+          <t>isagcarrillo_</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>dannyni0617</t>
+          <t>annamarie_611</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>lily.ellis03</t>
+          <t>bianca__r4</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>mdnguyen02</t>
+          <t>akhilb.13</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>mirth_no_matter</t>
+          <t>danielhshi</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>colinjwalls</t>
+          <t>soph.b_rose</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>s.a.levy</t>
+          <t>arap5stc</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>benettawangg</t>
+          <t>reid__w14</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>sean.younggg</t>
+          <t>marisa348</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>lemfisher</t>
+          <t>sadiecamiile</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>gilliandewsbury</t>
+          <t>nicolegulosh</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>bob.llewellyn1</t>
+          <t>sean.younggg</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>david_kordziel</t>
+          <t>sabina1545</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>mick.kamp</t>
+          <t>_v1_rotate_</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>d3n1se.mckeown</t>
+          <t>ethancherry427</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>meg.rourke</t>
+          <t>_iimaniii_</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>meghandreid</t>
+          <t>sydneyysheldon</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>karen_mensah_sarbah</t>
+          <t>_emmielove14</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>danniel_cao</t>
+          <t>sameh.murad</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>mayaroypdf73</t>
+          <t>m._.dominique</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>iliaspapage</t>
+          <t>catiesheehy</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>lauriepperry</t>
+          <t>tharrison_24</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>emily_13_elliott</t>
+          <t>parkerdebnam</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>maggie_henneman</t>
+          <t>miladehring</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>__nicole__perez</t>
+          <t>zacmreno_</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>charlotte_b46</t>
+          <t>hgsven</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>lil_phyzz</t>
+          <t>lmembrescia</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>seanemmett.11</t>
+          <t>josiah_seguin</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>dhanbee.suh</t>
+          <t>anjalikris17</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>lucag_in_dc</t>
+          <t>rubeojonathan</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>sarahchouinard2023</t>
+          <t>hannahleesux</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ding_hsin_2005</t>
+          <t>zoemiyamoto</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>brycecloonan</t>
+          <t>iliaspapage</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>nbirdwell07</t>
+          <t>aelederman1</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>_carolynbohnert</t>
+          <t>nearly.natasha</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>christophermccarrick</t>
+          <t>phillip_matijevic</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>meganday05</t>
+          <t>virginiah181</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>lukeiac</t>
+          <t>marie.pearl04</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>cawrightt</t>
+          <t>carolinejhealy</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>joe.terpenning</t>
+          <t>katherinea.walsh</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>richiedeluna5</t>
+          <t>edenleuzzi</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>kier_._sten</t>
+          <t>lieberman.lauren</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>jlbt3903</t>
+          <t>cecwhit</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>thomas.mcmurtrie</t>
+          <t>kylee.ledford</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>kimmarinogalvan</t>
+          <t>ian.mccannn</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>emilyy.willard</t>
+          <t>cora.suzanne_</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>sampfriedman</t>
+          <t>j.trautman74</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>abelyared</t>
+          <t>avaamarvin18</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>natalie_.najera</t>
+          <t>chris.wright20</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>michael_wang21</t>
+          <t>jessegd06</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>0ericjohnson0</t>
+          <t>emma.pollock5</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>piper.buswell</t>
+          <t>annaa.clee</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>owenhagen9</t>
+          <t>matthe.meyer</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>alexander_hatfield</t>
+          <t>greer.lafiura</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ty_cooley423</t>
+          <t>sccfish13</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>giordano3274</t>
+          <t>michael_t_trownsell</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>twcovington</t>
+          <t>miryo.ng</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ruth.hof</t>
+          <t>giannaklopping</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>summerpenzi</t>
+          <t>lilywersh</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>jasmin.hernandez.28</t>
+          <t>drewbene2521</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>fkelly23</t>
+          <t>benisjammin2</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>tedx_wm_spring_2024</t>
+          <t>matt.hoekenga</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>joshuaryan366</t>
+          <t>mollyjhutch</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>katie_martz</t>
+          <t>zoeogalvin</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>_charlotte.smith_</t>
+          <t>c_truesdale3</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>brian.r.cunningham.5</t>
+          <t>lucag_in_dc</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>anjalikris17</t>
+          <t>mattwhussey</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>matthetart</t>
+          <t>sophializz_</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>noah_krieg_</t>
+          <t>anne.licato</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>davidthefifth</t>
+          <t>sariah.elliott</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>andrew_henrickson</t>
+          <t>grassy_goose</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>kc_francella</t>
+          <t>emmagprimini</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>17rrauscher</t>
+          <t>molkowski27</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>raley.h66</t>
+          <t>ethan.wildgen</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>landenw.24</t>
+          <t>isabellla_lehr</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>zaranaka_welch</t>
+          <t>alylcf</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ssonssonee</t>
+          <t>tgchesnut</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>willjuricak</t>
+          <t>annabelle.fedun</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ramachak23</t>
+          <t>catherine.zic</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>helen.buzzoni</t>
+          <t>lukehmiller44</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>caroline.berman</t>
+          <t>brielle.santoro</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>sadiemcmahon05</t>
+          <t>notbrunny_04</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>m.asonmorris</t>
+          <t>sophiadowski</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>mayer.tawfik</t>
+          <t>anjali__manohar</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>audreysims3</t>
+          <t>t.vnct.t</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>noraaaa_hf</t>
+          <t>shama._.hasan</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>tfdalyv</t>
+          <t>vanessawalrath</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>mia.hunt_</t>
+          <t>olivia.mparker</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>lulu_bertioli</t>
+          <t>e.w.bomersheim</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ava.schultz12</t>
+          <t>_jackhales</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>marie.pearl04</t>
+          <t>astronautgoblin</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>eshalaamer</t>
+          <t>laurr.k</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>catiesheehy</t>
+          <t>joslyn.colglazier</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>tpvdv4408</t>
+          <t>slachheims</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>wm_kasa</t>
+          <t>spectatertot</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>hannahesawyer</t>
+          <t>ericaviles05</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>sellzun</t>
+          <t>gwilliams_629</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>vanessawalrath</t>
+          <t>samb0008</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>__emmawatts</t>
+          <t>ellsmoser</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>colleen.p.nielsen</t>
+          <t>arden.pent</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>jessiehortonnn</t>
+          <t>j.uressicapark</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>gavin_sandall</t>
+          <t>sophie.a.king</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>dj.cebula</t>
+          <t>caleylevine</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>brookesmythers</t>
+          <t>it.sjulianna</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>thatskarislee</t>
+          <t>natana.2006</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>wesclevengerr</t>
+          <t>astral_eaglez</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>elizabethaversa18</t>
+          <t>kev_kinsella</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>tiara.c0c0</t>
+          <t>karenarichmond</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>catmvalenti</t>
+          <t>phoebebyman</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>alexdeje12</t>
+          <t>henry_.anderson</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>olivia.stegner</t>
+          <t>iris.zola23</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>annabeleverett_</t>
+          <t>eyemomma</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>san.kim219</t>
+          <t>cynthiawu1112</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>crow_not__raven</t>
+          <t>bella.ghenea</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>kayla_brightman</t>
+          <t>mildredthfore</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>tammyinnyc</t>
+          <t>laynee_11</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>jenryan2052</t>
+          <t>colin.grantz</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>leahnanf</t>
+          <t>ameliabdeliaa</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>lucyflannerygoodman_</t>
+          <t>alonndra.santiago</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>shk.jake</t>
+          <t>gh0st1y_gh0st</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>emily.garlic</t>
+          <t>rebecawilkins</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>tristan_jander</t>
+          <t>bowenhall_05</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>misirui_furniture</t>
+          <t>lilsaucy1.0</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ambermarietompkins</t>
+          <t>andrewkramer24</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>abby.freund</t>
+          <t>_rochellethomas_</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>sam.koranteng</t>
+          <t>wesclevengerr</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>brow.n6401</t>
+          <t>alexlee.e</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>_maria_haddad</t>
+          <t>btw.isaac</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>noah_mojda</t>
+          <t>savara_s_13</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>elizabethfrenchhorn</t>
+          <t>_wilsonwice_</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>lg_goldman</t>
+          <t>die.hmm</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>igreenivyi</t>
+          <t>manju.mure</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>kelson_lowrie</t>
+          <t>alexandros_kh</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>aniyaht.12</t>
+          <t>hannah_reagler.1</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>elenabensonn</t>
+          <t>jvlayton</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>chadyates27</t>
+          <t>sheolele</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>tommy.soffronoff</t>
+          <t>wmlasu</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>wmpsychology</t>
+          <t>lexzach3301</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>_wahab_a</t>
+          <t>meghan_savage3</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>sarahvburns05</t>
+          <t>zezodib</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>geethanrameshh</t>
+          <t>_sean.kersey_</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>irene.stubert</t>
+          <t>adelia.purcell</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>kennedyl.8234</t>
+          <t>gabb.see</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>moulton411</t>
+          <t>saoirsed0wd</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>becca_ries</t>
+          <t>jess_skolnick</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>lcutts1</t>
+          <t>michael_wang21</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>kyle_johnson_05</t>
+          <t>o.sullivan31</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>taylor.afc</t>
+          <t>murphyyyys</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>_cbjohnson_</t>
+          <t>ben.landry7</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>victoria_wh1tt</t>
+          <t>anna.locklin</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>jordyns789</t>
+          <t>maddie.gypson</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>amandaxgabriela</t>
+          <t>tuckerrwpeters_</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>rebecca___c</t>
+          <t>gracegrenn</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>knox_dendy</t>
+          <t>jasper.lest</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>mmicahnoelle</t>
+          <t>abrown2118</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>claracavazos</t>
+          <t>ryaneapen</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>beatrice.gouverneur</t>
+          <t>christian.ivancich</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>jamison_gilmore</t>
+          <t>curioused10</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>bobbie_doherty</t>
+          <t>hannah.depew14</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>gabb.see</t>
+          <t>sarahpburris</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>will_rambo75</t>
+          <t>ajxbucy</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>david.mckeown.jr</t>
+          <t>michaelkenny_</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>parkerdebnam</t>
+          <t>connorbruce25</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>curioused10</t>
+          <t>tpvdv4408</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>gracedreis</t>
+          <t>danny.welch7</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>briiannaedwards</t>
+          <t>_mia509_</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>nataliekayburg</t>
+          <t>li_zihan0916</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ameliak_05</t>
+          <t>sasha271727</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>jeografi_</t>
+          <t>jack_covin</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>_sashakovtun_</t>
+          <t>patrickbrady03</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>isabella_mcnutt</t>
+          <t>dill_i_on</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>allen_baxter19</t>
+          <t>peaceheis</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>annasprnkel</t>
+          <t>sadiemcmahon05</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>yell0there</t>
+          <t>samdisanti</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ot4lyf</t>
+          <t>elizabeth_maeeee</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>mgnpruitt</t>
+          <t>maryy_harvey</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>lalisamanobal_nyein2022118</t>
+          <t>_charliemcintyre_</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>grace_carryer</t>
+          <t>maggieokieffe27</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>john.glasow</t>
+          <t>colleen_weirr</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>bianca__r4</t>
+          <t>alexander_hatfield</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>meredie08</t>
+          <t>sarahvburns05</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>maggiewalters8</t>
+          <t>anna.joy.16</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>j_wise42</t>
+          <t>kirbyann75</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>hannahleesux</t>
+          <t>_quilla_c</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>a11ysonmorris</t>
+          <t>solananeeley</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>bellasambaloca</t>
+          <t>thomas.mcmurtrie</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>bayne_n14</t>
+          <t>olivia_shif</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>_sean.kersey_</t>
+          <t>liambsciple</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>timmy.tasler</t>
+          <t>zola.sf</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ryan.hendersonn</t>
+          <t>br00klyn_cd</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>skylarmayconn</t>
+          <t>rrachel.huang</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>cecelia.lauren_</t>
+          <t>gabiichaurand</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>n.valyayev</t>
+          <t>amy.neal.bussey</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>sarah_schulte_11</t>
+          <t>sherieeeey</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>johnnpotash</t>
+          <t>abby_k_riddle</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>acscheck15</t>
+          <t>avahearne</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>sheppy_oman</t>
+          <t>john.across</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>auroraschwaner</t>
+          <t>atticusthegiraffe</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>kadence.r.dickey</t>
+          <t>avar0gers</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>melissa.bantz</t>
+          <t>elaksobol</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>riley.kz</t>
+          <t>norahmyerow</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>vcl_xi</t>
+          <t>connor.cb5</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>_declanwalsh_</t>
+          <t>foster.covington</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>abrown2118</t>
+          <t>aubry._.rose</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>alex__grapsas</t>
+          <t>mimichapman_</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>pablo_tartiere</t>
+          <t>avatobias_</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>catherine.zic</t>
+          <t>atticusgore</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>aya_ezzahii_</t>
+          <t>michaelmehler13</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>nathan.f.ward</t>
+          <t>dadddydebbie</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>molly_edmonds13</t>
+          <t>_esha240</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>it.sjulianna</t>
+          <t>it.may.be.maya</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>josshempel</t>
+          <t>emjmclaughlin_</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>halle_thompson27</t>
+          <t>auronee13</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>terrencemcdu</t>
+          <t>_katiemina_</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>vivianvesuna</t>
+          <t>righini_francesca</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>anangonz</t>
+          <t>grace_mccardle</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>lizz_burm</t>
+          <t>kim_ann024</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>joshk10</t>
+          <t>yas_is_trash</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ronzonilee</t>
+          <t>leo.g.jones_</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>samrosuck</t>
+          <t>taylor_villanelle13</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>carolineemullen</t>
+          <t>cecilia.laww</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>stebner.amanda</t>
+          <t>mackinziebrown</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ryannie777</t>
+          <t>tomasinapearman</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>iriswhit30</t>
+          <t>ameliamcdon</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>liannajarecki</t>
+          <t>hannahjzog</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>samantha_gaylor</t>
+          <t>lordtbear</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>james.leonarddd</t>
+          <t>meg_mc26</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>kami_0920</t>
+          <t>ginnyginginger</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>hadillmarah</t>
+          <t>grantyoon7</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>ananya.gomatam</t>
+          <t>sofiaatk1</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>_jackhales</t>
+          <t>n.valyayev</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>carolineemcglynn</t>
+          <t>annasprnkel</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>megantimmes</t>
+          <t>laybaybe._</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>alexandra.lauderbaugh</t>
+          <t>lexi.pollard</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>kirsten.buggel</t>
+          <t>jillian.zaremba</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>c_truesdale3</t>
+          <t>heidi.anne_</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>meg_mc26</t>
+          <t>lemfisher</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>hsakurab</t>
+          <t>sophialee_04</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>izzy.rietze</t>
+          <t>waters_connor05</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>zoe.arakelian</t>
+          <t>annabean143</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ameliavjohnson</t>
+          <t>vannah005</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>joshua19chin</t>
+          <t>isabelle_downie</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>sarah.a.n._</t>
+          <t>alex__grapsas</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>grace.huffman28</t>
+          <t>melissamarrriott</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>nataliechenard</t>
+          <t>kloie.renay</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>kaylaschifferle</t>
+          <t>pablo_tartiere</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>erinuniacke</t>
+          <t>amyareyyes</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>clem.fuller</t>
+          <t>joshua19chin</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>_tdf5</t>
+          <t>charlotteltroy</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>_katlove</t>
+          <t>kj.ellies</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ggbellamy</t>
+          <t>carolinemndoza</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>kaylaathorpe</t>
+          <t>ryan1square</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>tdxwm</t>
+          <t>ellanicole20</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>matttyp01</t>
+          <t>maddie.daviss_</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>sophializz_</t>
+          <t>kyle_johnson_05</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>stephendalil</t>
+          <t>madison_hounsell</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>philip_vayntrub</t>
+          <t>tommy.soffronoff</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>alexalewandowski</t>
+          <t>kaylin_seim</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>krishna1sw</t>
+          <t>leleister.21</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>brumbaughjack</t>
+          <t>natalouise26</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>wmmath</t>
+          <t>madison.powellll</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>sophie.ermellini</t>
+          <t>tristan_jander</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,10 +3938,280 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>jess__richmond</t>
+          <t>m.asonmorris</t>
         </is>
       </c>
       <c r="B351" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>lilypuff88</t>
+        </is>
+      </c>
+      <c r="B352" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>calderburkhart</t>
+        </is>
+      </c>
+      <c r="B353" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>jennynguyenn_</t>
+        </is>
+      </c>
+      <c r="B354" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>_goodgollyitsmolly_</t>
+        </is>
+      </c>
+      <c r="B355" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>samrosuck</t>
+        </is>
+      </c>
+      <c r="B356" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>bella_w09</t>
+        </is>
+      </c>
+      <c r="B357" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>bmats72</t>
+        </is>
+      </c>
+      <c r="B358" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>caroline_clinton05</t>
+        </is>
+      </c>
+      <c r="B359" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>chloepierini</t>
+        </is>
+      </c>
+      <c r="B360" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>just_nihao</t>
+        </is>
+      </c>
+      <c r="B361" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>emikobuntin_365</t>
+        </is>
+      </c>
+      <c r="B362" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>kaylaschifferle</t>
+        </is>
+      </c>
+      <c r="B363" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>allyblizzard</t>
+        </is>
+      </c>
+      <c r="B364" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>lydia.wang_</t>
+        </is>
+      </c>
+      <c r="B365" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>nazdaq.f.hab</t>
+        </is>
+      </c>
+      <c r="B366" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>sharanyadutt</t>
+        </is>
+      </c>
+      <c r="B367" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>davidsog15</t>
+        </is>
+      </c>
+      <c r="B368" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>x_.ramiyah_.x</t>
+        </is>
+      </c>
+      <c r="B369" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>bibi_sha07</t>
+        </is>
+      </c>
+      <c r="B370" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>kelvinn.dang</t>
+        </is>
+      </c>
+      <c r="B371" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>gracie_rosenberg</t>
+        </is>
+      </c>
+      <c r="B372" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>hanashlyn_</t>
+        </is>
+      </c>
+      <c r="B373" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>aubrey.i.joseph</t>
+        </is>
+      </c>
+      <c r="B374" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>knox_dendy</t>
+        </is>
+      </c>
+      <c r="B375" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>calebfc28</t>
+        </is>
+      </c>
+      <c r="B376" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>sophiavizzoni_</t>
+        </is>
+      </c>
+      <c r="B377" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>marissa.m.romero</t>
+        </is>
+      </c>
+      <c r="B378" t="b">
         <v>0</v>
       </c>
     </row>
